--- a/testing/save_qa_file.xlsx
+++ b/testing/save_qa_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,499 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-25-22-42-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 可视化的英文是什么？
+</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>可视化的英文是 "visualization"。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-25-22-46-48</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pip install django djangorestframework django-cors-headers
+</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The command you've written is used to install Django and its associated packages using pip, which is the package installer for Python. Each of these packages serves a different purpose:
+1. **Django**: A high-level Python web framework that encourages rapid development and clean, pragmatic design.
+2. **Django REST Framework**: A powerful toolkit for building Web APIs in Django, allowing you to create RESTful APIs easily.
+3. **Django CORS Headers**: A Django app for handling Cross-Origin Resource Sharing (CORS), which is a mechanism that allows restricted resources on a web page to be requested from another domain outside the domain from which the resource originated.
+To run the command, make sure you have Python and pip installed on your system. Open your terminal or command prompt and execute the following command:
+```bash
+pip install django djangorestframework django-cors-headers
+```
+### Steps to Follow:
+1. **Open your Terminal/Command Prompt**.
+2. **Create a Virtual Environment (optional but recommended)**:
+   ```bash
+   python -m venv myenv
+   ```
+   Replace `myenv` with your desired virtual environment name.
+3. **Activate the Virtual Environment**:
+   - On Windows:
+     ```bash
+     myenv\Scripts\activate
+     ```
+   - On macOS/Linux:
+     ```bash
+     source myenv/bin/activate
+     ```
+4. **Install the Packages**:
+   After activating your virtual environment, run the pip install command:
+   ```bash
+   pip install django djangorestframework django-cors-headers
+   ```
+### Verify Installation:
+After the installation completes, you can verify that the packages are installed correctly by running:
+```bash
+pip show django djangorestframework django-cors-headers
+```
+This will show you information about each package, confirming they are installed. 
+### Next Steps:
+- Once installed, you can create a new Django project using `django-admin startproject projectname`.
+- You can then add `rest_framework` and `corsheaders` to your `INSTALLED_APPS` in the `settings.py` of your Django project to start using them. 
+If you have any specific questions about using these libraries or need further assistance, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-26-01-20-21</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+计算机科学与技术
+是什么？
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>计算机科学与技术是一个涉及计算机及其应用的学科领域，主要涵盖了计算机的理论、设计、开发、应用和维护等多个方面。它一般包括以下几个主要内容：
+1. **计算机理论**：研究计算机的基本原理、算法、数据结构、计算复杂性等。
+2. **编程语言**：学习和使用各种编程语言来开发软件和应用程序。
+3. **软件工程**：涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。
+4. **计算机系统**：包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。
+5. **数据库**：研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。
+6. **人工智能与机器学习**：研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。
+7. **网络与信息安全**：关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。
+8. **人机交互**：研究用户与计算机之间的交互方式，旨在提升用户体验。
+计算机科学与技术不仅是理论研究的领域，同时也广泛应用于经济、医疗、交通、娱乐等多个行业，推动了现代社会的数字化和智能化进程。</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-08-26-01-26-00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">计算机科学与技术是一个涉及计算机及其应用的学科领域，主要涵盖了计算机的理论、设计、开发、应用和维护等多个方面。它一般包括以下几个主要内容：
+1. **计算机理论**：研究计算机的基本原理、算法、数据结构、计算复杂性等。
+2. **编程语言**：学习和使用各种编程语言来开发软件和应用程序。
+3. **软件工程**：涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。
+4. **计算机系统**：包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。
+5. **数据库**：研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。
+6. **人工智能与机器学习**：研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。
+7. **网络与信息安全**：关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。
+8. **人机交互**：研究用户与计算机之间的交互方式，旨在提升用户体验。
+计算机科学与技术不仅是理论研究的领域，同时也广泛应用于经济、医疗、交通、娱乐等多个行业，推动了现代社会的数字化和智能化进程。
+请将上述所有内容提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>下面是将您提供的计算机科学与技术内容提取为JSON格式的结果：
+```json
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "计算机理论",
+            "description": "研究计算机的基本原理、算法、数据结构、计算复杂性等。"
+        },
+        {
+            "id": "2",
+            "name": "编程语言",
+            "description": "学习和使用各种编程语言来开发软件和应用程序。"
+        },
+        {
+            "id": "3",
+            "name": "软件工程",
+            "description": "涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。"
+        },
+        {
+            "id": "4",
+            "name": "计算机系统",
+            "description": "包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。"
+        },
+        {
+            "id": "5",
+            "name": "数据库",
+            "description": "研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。"
+        },
+        {
+            "id": "6",
+            "name": "人工智能与机器学习",
+            "description": "研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。"
+        },
+        {
+            "id": "7",
+            "name": "网络与信息安全",
+            "description": "关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。"
+        },
+        {
+            "id": "8",
+            "name": "人机交互",
+            "description": "研究用户与计算机之间的交互方式，旨在提升用户体验。"
+        }
+    ],
+    "links": [
+        {
+            "source": "1",
+            "target": "3",
+            "type": "包含"
+        },
+        {
+            "source": "2",
+            "target": "3",
+            "type": "包含"
+        },
+        {
+            "source": "3",
+            "target": "4",
+            "type": "包含"
+        },
+        {
+            "source": "4",
+            "target": "5",
+            "type": "包含"
+        },
+        {
+            "source": "4",
+            "target": "6",
+            "type": "包含"
+        },
+        {
+            "source": "4",
+            "target": "7",
+            "type": "包含"
+        },
+        {
+            "source": "4",
+            "target": "8",
+            "type": "包含"
+        }
+    ]
+}
+```
+此JSON结构包含了计算机科学与技术的各个主要内容及其关系。每个内容都被视为一个节点，并标出了它们之间的包含关系。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-26-01-26-58</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">计算机科学与技术是一个涉及计算机及其应用的学科领域，主要涵盖了计算机的理论、设计、开发、应用和维护等多个方面。它一般包括以下几个主要内容：
+1. **计算机理论**：研究计算机的基本原理、算法、数据结构、计算复杂性等。
+2. **编程语言**：学习和使用各种编程语言来开发软件和应用程序。
+3. **软件工程**：涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。
+4. **计算机系统**：包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。
+5. **数据库**：研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。
+6. **人工智能与机器学习**：研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。
+7. **网络与信息安全**：关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。
+8. **人机交互**：研究用户与计算机之间的交互方式，旨在提升用户体验。
+计算机科学与技术不仅是理论研究的领域，同时也广泛应用于经济、医疗、交通、娱乐等多个行业，推动了现代社会的数字化和智能化进程。
+请将上述所有内容提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+仅仅输出json内容，其他内容不要输出
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "计算机理论",
+            "description": "研究计算机的基本原理、算法、数据结构、计算复杂性等。"
+        },
+        {
+            "id": "2",
+            "name": "编程语言",
+            "description": "学习和使用各种编程语言来开发软件和应用程序。"
+        },
+        {
+            "id": "3",
+            "name": "软件工程",
+            "description": "涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。"
+        },
+        {
+            "id": "4",
+            "name": "计算机系统",
+            "description": "包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。"
+        },
+        {
+            "id": "5",
+            "name": "数据库",
+            "description": "研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。"
+        },
+        {
+            "id": "6",
+            "name": "人工智能与机器学习",
+            "description": "研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。"
+        },
+        {
+            "id": "7",
+            "name": "网络与信息安全",
+            "description": "关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。"
+        },
+        {
+            "id": "8",
+            "name": "人机交互",
+            "description": "研究用户与计算机之间的交互方式，旨在提升用户体验。"
+        }
+    ],
+    "links": [
+        {
+            "source": "3",
+            "target": "1",
+            "type": "包含"
+        },
+        {
+            "source": "3",
+            "target": "2",
+            "type": "包含"
+        },
+        {
+            "source": "3",
+            "target": "4",
+            "type": "包含"
+        },
+        {
+            "source": "3",
+            "target": "5",
+            "type": "包含"
+        },
+        {
+            "source": "6",
+            "target": "1",
+            "type": "包含"
+        },
+        {
+            "source": "7",
+            "target": "4",
+            "type": "包含"
+        },
+        {
+            "source": "8",
+            "target": "4",
+            "type": "包含"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-26-01-28-49</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">计算机科学与技术是一个涉及计算机及其应用的学科领域，主要涵盖了计算机的理论、设计、开发、应用和维护等多个方面。它一般包括以下几个主要内容：
+1. **计算机理论**：研究计算机的基本原理、算法、数据结构、计算复杂性等。
+2. **编程语言**：学习和使用各种编程语言来开发软件和应用程序。
+3. **软件工程**：涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。
+4. **计算机系统**：包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。
+5. **数据库**：研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。
+6. **人工智能与机器学习**：研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。
+7. **网络与信息安全**：关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。
+8. **人机交互**：研究用户与计算机之间的交互方式，旨在提升用户体验。
+计算机科学与技术不仅是理论研究的领域，同时也广泛应用于经济、医疗、交通、娱乐等多个行业，推动了现代社会的数字化和智能化进程。
+请将上述所有内容提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出json内容，其他内容不要输出
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "计算机理论",
+            "description": "研究计算机的基本原理、算法、数据结构、计算复杂性等"
+        },
+        {
+            "id": "10001",
+            "name": "编程语言",
+            "description": "学习和使用各种编程语言来开发软件和应用程序"
+        },
+        {
+            "id": "10002",
+            "name": "软件工程",
+            "description": "涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量"
+        },
+        {
+            "id": "10003",
+            "name": "计算机系统",
+            "description": "包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互"
+        },
+        {
+            "id": "10004",
+            "name": "数据库",
+            "description": "研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）"
+        },
+        {
+            "id": "10005",
+            "name": "人工智能与机器学习",
+            "description": "研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等"
+        },
+        {
+            "id": "10006",
+            "name": "网络与信息安全",
+            "description": "关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏"
+        },
+        {
+            "id": "10007",
+            "name": "人机交互",
+            "description": "研究用户与计算机之间的交互方式，旨在提升用户体验"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10001",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10003",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10004",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10005",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10006",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10007",
+            "type": "包含"
+        },
+        {
+            "source": "10002",
+            "target": "10005",
+            "type": "相关"
+        },
+        {
+            "source": "10006",
+            "target": "10003",
+            "type": "相关"
+        }
+    ]
+}
+```</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testing/save_qa_file.xlsx
+++ b/testing/save_qa_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -962,6 +962,1645 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-26-01-31-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">计算机科学与技术是一个涉及计算机及其应用的学科领域，主要涵盖了计算机的理论、设计、开发、应用和维护等多个方面。它一般包括以下几个主要内容：
+1. **计算机理论**：研究计算机的基本原理、算法、数据结构、计算复杂性等。
+2. **编程语言**：学习和使用各种编程语言来开发软件和应用程序。
+3. **软件工程**：涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。
+4. **计算机系统**：包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。
+5. **数据库**：研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。
+6. **人工智能与机器学习**：研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。
+7. **网络与信息安全**：关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。
+8. **人机交互**：研究用户与计算机之间的交互方式，旨在提升用户体验。
+计算机科学与技术不仅是理论研究的领域，同时也广泛应用于经济、医疗、交通、娱乐等多个行业，推动了现代社会的数字化和智能化进程。
+请将上述所有内容提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出json内容，其他内容不要输出
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "计算机理论",
+            "description": "研究计算机的基本原理、算法、数据结构、计算复杂性等。"
+        },
+        {
+            "id": "10001",
+            "name": "编程语言",
+            "description": "学习和使用各种编程语言来开发软件和应用程序。"
+        },
+        {
+            "id": "10002",
+            "name": "软件工程",
+            "description": "涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。"
+        },
+        {
+            "id": "10003",
+            "name": "计算机系统",
+            "description": "包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。"
+        },
+        {
+            "id": "10004",
+            "name": "数据库",
+            "description": "研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。"
+        },
+        {
+            "id": "10005",
+            "name": "人工智能与机器学习",
+            "description": "研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。"
+        },
+        {
+            "id": "10006",
+            "name": "网络与信息安全",
+            "description": "关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。"
+        },
+        {
+            "id": "10007",
+            "name": "人机交互",
+            "description": "研究用户与计算机之间的交互方式，旨在提升用户体验。"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10001",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "包含"
+        },
+        {
+            "source": "10002",
+            "target": "10003",
+            "type": "包含"
+        },
+        {
+            "source": "10002",
+            "target": "10004",
+            "type": "包含"
+        },
+        {
+            "source": "10002",
+            "target": "10005",
+            "type": "包含"
+        },
+        {
+            "source": "10003",
+            "target": "10006",
+            "type": "包含"
+        },
+        {
+            "source": "10005",
+            "target": "10007",
+            "type": "包含"
+        }
+    ]
+}
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-26-11-30-55</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+一、”磁盘"单缓冲区与双缓冲区
+磁盘缓冲区的
+·单缓冲区
+·双缓冲区
+是两种不同的设计策略，用于优化数据读取和写入的效率：
+1、”磁盘”单缓冲区
+只有一个缓冲区用于存储数据和写出数据，无论是读取数据还是写入数据，都使用同一个缓冲区：
+·读取数据：当系统需要从磁盘读取数据时，数据首先被读取到单个缓冲区中：
+·与入数据：当系统需要将数据写入磁盘时，写入操作也使用同一个缓冲区；
+读取和写入数据操作不能并行进行，因为同一个缓冲区同时只能处理一个操作，会影响系统的响应速度和效率
+2、“磁盘”双缓冲区
+系统有两个独立的缓冲区，分别用于读取和写入数据操作；
+·读取数据：从磁盘读取数据时，数据被读取到读缓冲区中：
+·写入数据：向磁盘写入数据时，数据被写出到写缓冲区中；
+磁盘双缓冲区充许读取和写入操作同时进行，能够有效地提高系统的并行处理能力和响应速度；
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>磁盘单缓冲区与双缓冲区的设计策略各有优缺点，适用于不同的应用场景。
+### 1. 磁盘单缓冲区
+- **优点**：
+  - 实现简单，资源开销较小，只需管理一个缓冲区。
+  - 在一些简单的应用场景下，足够满足基本的数据读取与写入需求。
+- **缺点**：
+  - 读取和写入操作不能并行进行，可能导致系统在操作高峰期反应迟缓。
+  - 当读取和写入操作频繁发生时，会产生较高的延迟，影响系统的整体性能。
+### 2. 磁盘双缓冲区
+- **优点**：
+  - 允许读取和写入操作并行进行，提升了系统的处理效率和响应速度。
+  - 有助于减轻磁盘I/O瓶颈，提高数据传输的吞吐量。
+- **缺点**：
+  - 需要更复杂的管理机制，以协调两个缓冲区的数据流。
+  - 占用更多的系统内存和资源，可能对资源有限的环境不太适用。
+### 应用场景
+- **单缓冲区**适合于资源有限、数据交换需求不高的简单应用，如小型嵌入式系统或者一些基础的文件操作。
+- **双缓冲区**适合于需要高效数据处理和响应的应用，如多媒体处理、网络数据流的实时处理或者大型数据库系统。
+### 总结
+选用单缓冲区或双缓冲区的设计策略应该根据具体的应用需求、资源限制以及性能要求进行综合考量。在现代计算环境中，双缓冲区的优势常常使其成为优选方案。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-26-11-33-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+一、”磁盘"单缓冲区与双缓冲区
+磁盘缓冲区的
+·单缓冲区
+·双缓冲区
+是两种不同的设计策略，用于优化数据读取和写入的效率：
+1、”磁盘”单缓冲区
+只有一个缓冲区用于存储数据和写出数据，无论是读取数据还是写入数据，都使用同一个缓冲区：
+·读取数据：当系统需要从磁盘读取数据时，数据首先被读取到单个缓冲区中：
+·与入数据：当系统需要将数据写入磁盘时，写入操作也使用同一个缓冲区；
+读取和写入数据操作不能并行进行，因为同一个缓冲区同时只能处理一个操作，会影响系统的响应速度和效率
+2、“磁盘”双缓冲区
+系统有两个独立的缓冲区，分别用于读取和写入数据操作；
+·读取数据：从磁盘读取数据时，数据被读取到读缓冲区中：
+·写入数据：向磁盘写入数据时，数据被写出到写缓冲区中；
+磁盘双缓冲区充许读取和写入操作同时进行，能够有效地提高系统的并行处理能力和响应速度；
+请将上述所有内容进行知识图谱提取核心的实体和关系，提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出json内容，其他内容不要输出
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "磁盘缓冲区",
+            "description": "用于优化数据读取和写入的效率"
+        },
+        {
+            "id": "10001",
+            "name": "单缓冲区",
+            "description": "只有一个缓冲区用于存储数据和写出数据"
+        },
+        {
+            "id": "10002",
+            "name": "双缓冲区",
+            "description": "有两个独立的缓冲区，分别用于读取和写入"
+        },
+        {
+            "id": "10003",
+            "name": "读取数据",
+            "description": "从磁盘读取数据"
+        },
+        {
+            "id": "10004",
+            "name": "写入数据",
+            "description": "向磁盘写入数据"
+        },
+        {
+            "id": "10005",
+            "name": "读缓冲区",
+            "description": "用于存储读取的数据"
+        },
+        {
+            "id": "10006",
+            "name": "写缓冲区",
+            "description": "用于存储待写入的数据"
+        },
+        {
+            "id": "10007",
+            "name": "并行处理能力",
+            "description": "系统能够同时处理多个操作的能力"
+        },
+        {
+            "id": "10008",
+            "name": "响应速度",
+            "description": "系统对操作的反应时间"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10001",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "包含"
+        },
+        {
+            "source": "10001",
+            "target": "10003",
+            "type": "使用"
+        },
+        {
+            "source": "10001",
+            "target": "10004",
+            "type": "使用"
+        },
+        {
+            "source": "10002",
+            "target": "10003",
+            "type": "使用"
+        },
+        {
+            "source": "10002",
+            "target": "10004",
+            "type": "使用"
+        },
+        {
+            "source": "10002",
+            "target": "10005",
+            "type": "包含"
+        },
+        {
+            "source": "10002",
+            "target": "10006",
+            "type": "包含"
+        },
+        {
+            "source": "10005",
+            "target": "10003",
+            "type": "处理"
+        },
+        {
+            "source": "10006",
+            "target": "10004",
+            "type": "处理"
+        },
+        {
+            "source": "10002",
+            "target": "10007",
+            "type": "提升"
+        },
+        {
+            "source": "10002",
+            "target": "10008",
+            "type": "提升"
+        }
+    ]
+}
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-08-26-11-34-07</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+一、”磁盘"单缓冲区与双缓冲区
+磁盘缓冲区的
+·单缓冲区
+·双缓冲区
+是两种不同的设计策略，用于优化数据读取和写入的效率：
+1、”磁盘”单缓冲区
+只有一个缓冲区用于存储数据和写出数据，无论是读取数据还是写入数据，都使用同一个缓冲区：
+·读取数据：当系统需要从磁盘读取数据时，数据首先被读取到单个缓冲区中：
+·与入数据：当系统需要将数据写入磁盘时，写入操作也使用同一个缓冲区；
+读取和写入数据操作不能并行进行，因为同一个缓冲区同时只能处理一个操作，会影响系统的响应速度和效率
+2、“磁盘”双缓冲区
+系统有两个独立的缓冲区，分别用于读取和写入数据操作；
+·读取数据：从磁盘读取数据时，数据被读取到读缓冲区中：
+·写入数据：向磁盘写入数据时，数据被写出到写缓冲区中；
+磁盘双缓冲区充许读取和写入操作同时进行，能够有效地提高系统的并行处理能力和响应速度；
+请将上述所有内容进行知识图谱提取核心的实体和关系，提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出jsons数据，其他内容不要输出，```json和```不要输出
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "磁盘单缓冲区",
+            "description": "采用一个缓冲区进行数据读写操作的策略"
+        },
+        {
+            "id": "10001",
+            "name": "磁盘双缓冲区",
+            "description": "采用两个独立缓冲区分别进行数据读写操作的策略"
+        },
+        {
+            "id": "10002",
+            "name": "缓冲区",
+            "description": "用于存储数据的内存区域"
+        },
+        {
+            "id": "10003",
+            "name": "读取数据",
+            "description": "从磁盘读取数据的操作"
+        },
+        {
+            "id": "10004",
+            "name": "写入数据",
+            "description": "向磁盘写入数据的操作"
+        },
+        {
+            "id": "10005",
+            "name": "系统效率",
+            "description": "系统响应速度和处理能力的度量"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "使用"
+        },
+        {
+            "source": "10000",
+            "target": "10003",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10004",
+            "type": "包含"
+        },
+        {
+            "source": "10001",
+            "target": "10002",
+            "type": "使用"
+        },
+        {
+            "source": "10001",
+            "target": "10003",
+            "type": "包含"
+        },
+        {
+            "source": "10001",
+            "target": "10004",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10005",
+            "type": "影响"
+        },
+        {
+            "source": "10001",
+            "target": "10005",
+            "type": "影响"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-08-26-11-38-37</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+一、”磁盘"单缓冲区与双缓冲区
+磁盘缓冲区的
+·单缓冲区
+·双缓冲区
+是两种不同的设计策略，用于优化数据读取和写入的效率：
+1、”磁盘”单缓冲区
+只有一个缓冲区用于存储数据和写出数据，无论是读取数据还是写入数据，都使用同一个缓冲区：
+·读取数据：当系统需要从磁盘读取数据时，数据首先被读取到单个缓冲区中：
+·与入数据：当系统需要将数据写入磁盘时，写入操作也使用同一个缓冲区；
+读取和写入数据操作不能并行进行，因为同一个缓冲区同时只能处理一个操作，会影响系统的响应速度和效率
+2、“磁盘”双缓冲区
+系统有两个独立的缓冲区，分别用于读取和写入数据操作；
+·读取数据：从磁盘读取数据时，数据被读取到读缓冲区中：
+·写入数据：向磁盘写入数据时，数据被写出到写缓冲区中；
+磁盘双缓冲区充许读取和写入操作同时进行，能够有效地提高系统的并行处理能力和响应速度；
+请将上述所有内容进行知识图谱提取核心的实体和关系，提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出json数据，其他内容不要输出，```json和```不要输出
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "磁盘单缓冲区",
+            "description": "只有一个缓冲区用于存储数据和写出数据"
+        },
+        {
+            "id": "10001",
+            "name": "磁盘双缓冲区",
+            "description": "有两个独立的缓冲区，分别用于读取和写入数据操作"
+        },
+        {
+            "id": "10002",
+            "name": "读取数据",
+            "description": "从磁盘读取数据"
+        },
+        {
+            "id": "10003",
+            "name": "写入数据",
+            "description": "将数据写入磁盘"
+        },
+        {
+            "id": "10004",
+            "name": "缓冲区",
+            "description": "用于临时存储数据的区域"
+        },
+        {
+            "id": "10005",
+            "name": "并行处理能力",
+            "description": "同时处理多个操作的能力"
+        },
+        {
+            "id": "10006",
+            "name": "响应速度",
+            "description": "系统对请求做出反应的快慢"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10004",
+            "type": "包含"
+        },
+        {
+            "source": "10001",
+            "target": "10004",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "影响"
+        },
+        {
+            "source": "10000",
+            "target": "10003",
+            "type": "影响"
+        },
+        {
+            "source": "10001",
+            "target": "10002",
+            "type": "影响"
+        },
+        {
+            "source": "10001",
+            "target": "10003",
+            "type": "影响"
+        },
+        {
+            "source": "10001",
+            "target": "10005",
+            "type": "提高"
+        },
+        {
+            "source": "10001",
+            "target": "10006",
+            "type": "提高"
+        },
+        {
+            "source": "10000",
+            "target": "10005",
+            "type": "降低"
+        },
+        {
+            "source": "10000",
+            "target": "10006",
+            "type": "降低"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-08-26-12-10-37</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">计算机科学与技术是一个涉及计算机及其应用的学科领域，主要涵盖了计算机的理论、设计、开发、应用和维护等多个方面。它一般包括以下几个主要内容：
+1. **计算机理论**：研究计算机的基本原理、算法、数据结构、计算复杂性等。
+2. **编程语言**：学习和使用各种编程语言来开发软件和应用程序。
+3. **软件工程**：涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。
+4. **计算机系统**：包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。
+5. **数据库**：研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。
+6. **人工智能与机器学习**：研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。
+7. **网络与信息安全**：关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。
+8. **人机交互**：研究用户与计算机之间的交互方式，旨在提升用户体验。
+计算机科学与技术不仅是理论研究的领域，同时也广泛应用于经济、医疗、交通、娱乐等多个行业，推动了现代社会的数字化和智能化进程。
+请将上述所有内容进行知识图谱提取核心的实体和关系，提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出json数据，其他内容不要输出，```json和```不要输出
+</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "计算机科学与技术",
+            "description": "涉及计算机及其应用的学科领域"
+        },
+        {
+            "id": "10001",
+            "name": "计算机理论",
+            "description": "研究计算机的基本原理、算法、数据结构、计算复杂性等"
+        },
+        {
+            "id": "10002",
+            "name": "编程语言",
+            "description": "学习和使用各种编程语言来开发软件和应用程序"
+        },
+        {
+            "id": "10003",
+            "name": "软件工程",
+            "description": "涉及软件的开发流程、设计模式、测试、维护等"
+        },
+        {
+            "id": "10004",
+            "name": "计算机系统",
+            "description": "包括操作系统、计算机硬件结构、网络系统等"
+        },
+        {
+            "id": "10005",
+            "name": "数据库",
+            "description": "研究如何存储、管理和获取数据"
+        },
+        {
+            "id": "10006",
+            "name": "人工智能与机器学习",
+            "description": "研究使计算机能够执行需要智能的任务的技术和方法"
+        },
+        {
+            "id": "10007",
+            "name": "网络与信息安全",
+            "description": "关注计算机网络的设计、安全性以及维护"
+        },
+        {
+            "id": "10008",
+            "name": "人机交互",
+            "description": "研究用户与计算机之间的交互方式"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10001",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10003",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10004",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10005",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10006",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10007",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10008",
+            "type": "包含"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-08-26-12-21-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">计算机科学与技术是一个涉及计算机及其应用的学科领域，主要涵盖了计算机的理论、设计、开发、应用和维护等多个方面。它一般包括以下几个主要内容：
+1. **计算机理论**：研究计算机的基本原理、算法、数据结构、计算复杂性等。
+2. **编程语言**：学习和使用各种编程语言来开发软件和应用程序。
+3. **软件工程**：涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。
+4. **计算机系统**：包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。
+5. **数据库**：研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。
+6. **人工智能与机器学习**：研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。
+7. **网络与信息安全**：关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。
+8. **人机交互**：研究用户与计算机之间的交互方式，旨在提升用户体验。
+计算机科学与技术不仅是理论研究的领域，同时也广泛应用于经济、医疗、交通、娱乐等多个行业，推动了现代社会的数字化和智能化进程。
+请将上述所有内容进行知识图谱提取核心的实体和关系，提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出json数据，其他内容不要输出，```json和```不要输出
+</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "计算机科学与技术",
+            "description": "涉及计算机及其应用的学科领域"
+        },
+        {
+            "id": "10001",
+            "name": "计算机理论",
+            "description": "研究计算机的基本原理、算法、数据结构、计算复杂性等"
+        },
+        {
+            "id": "10002",
+            "name": "编程语言",
+            "description": "学习和使用各种编程语言来开发软件和应用程序"
+        },
+        {
+            "id": "10003",
+            "name": "软件工程",
+            "description": "涉及软件的开发流程、设计模式、测试、维护等"
+        },
+        {
+            "id": "10004",
+            "name": "计算机系统",
+            "description": "包括操作系统、计算机硬件结构、网络系统等"
+        },
+        {
+            "id": "10005",
+            "name": "数据库",
+            "description": "研究如何存储、管理和获取数据"
+        },
+        {
+            "id": "10006",
+            "name": "人工智能与机器学习",
+            "description": "研究使计算机能够执行需要智能的任务的技术和方法"
+        },
+        {
+            "id": "10007",
+            "name": "网络与信息安全",
+            "description": "关注计算机网络的设计、安全性以及维护"
+        },
+        {
+            "id": "10008",
+            "name": "人机交互",
+            "description": "研究用户与计算机之间的交互方式"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10001",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10003",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10004",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10005",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10006",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10007",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10008",
+            "type": "包含"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-26-12-25-54</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">计算机科学与技术是一个涉及计算机及其应用的学科领域，主要涵盖了计算机的理论、设计、开发、应用和维护等多个方面。它一般包括以下几个主要内容：
+1. **计算机理论**：研究计算机的基本原理、算法、数据结构、计算复杂性等。
+2. **编程语言**：学习和使用各种编程语言来开发软件和应用程序。
+3. **软件工程**：涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。
+4. **计算机系统**：包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。
+5. **数据库**：研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。
+6. **人工智能与机器学习**：研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。
+7. **网络与信息安全**：关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。
+8. **人机交互**：研究用户与计算机之间的交互方式，旨在提升用户体验。
+计算机科学与技术不仅是理论研究的领域，同时也广泛应用于经济、医疗、交通、娱乐等多个行业，推动了现代社会的数字化和智能化进程。
+请将上述所有内容进行知识图谱提取核心的实体和关系，提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出json数据，其他内容不要输出，```json和```不要输出
+</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "计算机科学与技术",
+            "description": "一个涉及计算机及其应用的学科领域"
+        },
+        {
+            "id": "10001",
+            "name": "计算机理论",
+            "description": "研究计算机的基本原理、算法、数据结构、计算复杂性等"
+        },
+        {
+            "id": "10002",
+            "name": "编程语言",
+            "description": "学习和使用各种编程语言来开发软件和应用程序"
+        },
+        {
+            "id": "10003",
+            "name": "软件工程",
+            "description": "涉及软件的开发流程、设计模式、测试、维护等"
+        },
+        {
+            "id": "10004",
+            "name": "计算机系统",
+            "description": "包括操作系统、计算机硬件结构、网络系统等"
+        },
+        {
+            "id": "10005",
+            "name": "数据库",
+            "description": "研究如何存储、管理和获取数据"
+        },
+        {
+            "id": "10006",
+            "name": "人工智能与机器学习",
+            "description": "研究使计算机能够执行需要智能的任务的技术和方法"
+        },
+        {
+            "id": "10007",
+            "name": "网络与信息安全",
+            "description": "关注计算机网络的设计、安全性以及维护"
+        },
+        {
+            "id": "10008",
+            "name": "人机交互",
+            "description": "研究用户与计算机之间的交互方式"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10001",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10003",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10004",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10005",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10006",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10007",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10008",
+            "type": "包含"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-08-26-12-29-48</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">操作系统
+是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>操作系统（Operating System，简称OS）是计算机系统中一个非常重要的软件，它在硬件和用户应用程序之间起到桥梁的作用。简单来说，操作系统可以视为计算机的“管理员”，负责管理计算机的各个部分，让它们能够协调工作。
+### 通俗易懂的例子
+我们可以把操作系统比作一个“饭店的服务员”。
+1. **饭店与顾客的关系**：
+   - 在饭店中，顾客想要点菜、上菜、结账等，服务员负责与厨房（硬件）和顾客（用户）之间的沟通。
+   - 在计算机中，用户可以通过各种应用程序（例如浏览器、文档编辑器等）来进行操作，而操作系统就像是那个服务员，负责处理用户的指令并与计算机硬件（如CPU、内存、硬盘等）进行交互。
+2. **管理资源**：
+   - 在饭店里，服务员需要合理安排桌子、食材、厨师和服务人员，确保顾客能够及时得到自己点的菜。
+   - 操作系统也需要管理计算机的资源，比如分配内存给运行中的程序、调度CPU的使用、管理文件存储等等，确保每个程序都能顺利运行。
+3. **处理请求**：
+   - 当顾客点了一个菜，服务员会把这个请求传递给厨房，然后再把做好菜品送到顾客桌上。
+   - 同样，当用户在计算机中打开一个程序时，操作系统会接收这个请求，并启动程序，然后把程序的界面展示给用户。
+### 结论
+总之，操作系统就像是饭店中的服务员，管理和协调所有的资源和请求，让顾客（用户）和厨房（硬件）之间的互动变得简单、顺畅。没有操作系统，用户就需要直接与计算机硬件打交道，这样既复杂又困难。因此，操作系统在现代计算机使用中是一个不可或缺的部分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-08-26-12-30-14</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">操作系统
+是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>操作系统（Operating System，简称OS）是计算机系统中的一种软件，它负责管理计算机的硬件和软件资源，并为其他应用程序提供一系列服务。可以将操作系统看作是计算机中的“指挥官”，它协调不同的硬件和软件，让整个系统高效地运行。
+为了更通俗易懂，我们可以用一个生活中常见的例子来说明操作系统的功能。
+### 例子：餐厅的厨房
+想象一下，一个餐厅的厨房。厨房中有许多工作人员（厨师、服务员、洗碗工等），每个人都有自己的职责和工作方式。
+1. **厨房的经理（操作系统）**：厨房经理负责协调所有员工的工作，确保每道菜能在规定的时间内做好，并及时送到顾客的餐桌。经理知道每个人的任务和所需的设备（如烤箱、炉灶、切菜板等），以便合理分配时间和资源。
+2. **菜品（应用程序）**：每道菜就是一个应用程序，比如炸鸡、沙拉或者汤。这些菜品需要不同的食材和烹饪方法（计算机程序），而厨房经理（操作系统）负责确保所有食材和设备在需要的时候可用。
+3. **设备和食材（硬件）**：厨房里有各种设备（烤箱、炊具）和食材（蔬菜、肉类），这些就是计算机的硬件。厨房经理需要有效管理这些资源，避免设备冲突，比如同时有两个厨师使用同一个灶台。
+4. **订单（用户请求）**：顾客的订单就像用户的请求，厨房经理会根据顾客的需求安排相应的菜品制作，并确保及时响应。
+### 总结
+通过这个例子，我们可以看到，操作系统在计算机中扮演着非常重要的角色。它管理和协调各种硬件资源，为应用程序提供支持，并确保计算机的多个任务能够高效且有序地进行。没有操作系统，计算机就像没有经理的厨房，容易出现混乱和效率低下的问题。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-08-26-12-30-27</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">操作系统
+是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>操作系统（Operating System，OS）是计算机的核心软件，它负责管理计算机的硬件和软件资源，并为用户和应用程序提供基本的服务。简单来说，操作系统就是计算机的“大管家”。
+### 通俗易懂的比喻
+可以把操作系统想象成一个餐厅的服务员：
+1. **管理资源**：餐厅里有很多客人（用户）和菜品（应用程序），服务员负责管理这些客人所需的菜品和餐桌（计算机硬件）。他确保每个客人都能得到他们需要的服务，比如点菜、上菜等。
+2. **协调沟通**：在餐厅里，客人和厨师之间需要通过服务员来沟通。服务员将客人的需求（如点菜）传达给厨师，同时也将菜品送到客人桌上。在计算机中，操作系统负责应用程序与硬件之间的沟通，比如将程序的命令转化为计算机硬件能够理解的指令。
+3. **调度安排**：如果餐厅里有很多客户，同时又有限的厨房和服务员，服务员需要合理安排哪些客人先上菜，哪些后上。这就像操作系统调度CPU、内存等资源，确保所有的程序可以顺利运行而不会互相干扰。
+4. **提供安全性**：餐厅要确保客人和员工的安全，比如避免过敏、火灾等情况。操作系统也要确保计算机的安全，比如防止病毒、确保用户数据的安全等。
+### 小结
+因此，操作系统是电脑上一个非常关键的部分，它让硬件（CPU、内存、硬盘等）和软件（各种应用程序）能够协同工作，为我们提供一个方便、快捷、安全的使用环境。就像一个优秀的服务员，让我们在“计算机餐厅”中愉快地享用我们的“美食”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-08-26-12-31-46</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+操作系统（Operating System，简称OS）是计算机系统中一个非常重要的软件，它在硬件和用户应用程序之间起到桥梁的作用。简单来说，操作系统可以视为计算机的“管理员”，负责管理计算机的各个部分，让它们能够协调工作。
+### 通俗易懂的例子
+我们可以把操作系统比作一个“饭店的服务员”。
+1. **饭店与顾客的关系**：
+   - 在饭店中，顾客想要点菜、上菜、结账等，服务员负责与厨房（硬件）和顾客（用户）之间的沟通。
+   - 在计算机中，用户可以通过各种应用程序（例如浏览器、文档编辑器等）来进行操作，而操作系统就像是那个服务员，负责处理用户的指令并与计算机硬件（如CPU、内存、硬盘等）进行交互。
+2. **管理资源**：
+   - 在饭店里，服务员需要合理安排桌子、食材、厨师和服务人员，确保顾客能够及时得到自己点的菜。
+   - 操作系统也需要管理计算机的资源，比如分配内存给运行中的程序、调度CPU的使用、管理文件存储等等，确保每个程序都能顺利运行。
+3. **处理请求**：
+   - 当顾客点了一个菜，服务员会把这个请求传递给厨房，然后再把做好菜品送到顾客桌上。
+   - 同样，当用户在计算机中打开一个程序时，操作系统会接收这个请求，并启动程序，然后把程序的界面展示给用户。
+### 结论
+总之，操作系统就像是饭店中的服务员，管理和协调所有的资源和请求，让顾客（用户）和厨房（硬件）之间的互动变得简单、顺畅。没有操作系统，用户就需要直接与计算机硬件打交道，这样既复杂又困难。因此，操作系统在现代计算机使用中是一个不可或缺的部分。
+请将上述所有内容进行知识图谱提取核心的实体和关系，提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出json数据，其他内容不要输出，```json和```不要输出
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "操作系统",
+            "description": "计算机系统中一个非常重要的软件，管理硬件和用户应用程序"
+        },
+        {
+            "id": "10001",
+            "name": "用户应用程序",
+            "description": "用户通过其进行操作的程序，如浏览器、文档编辑器等"
+        },
+        {
+            "id": "10002",
+            "name": "硬件",
+            "description": "计算机的物理组件，如CPU、内存、硬盘等"
+        },
+        {
+            "id": "10003",
+            "name": "服务员",
+            "description": "饭店中的服务人员，负责沟通顾客与厨房"
+        },
+        {
+            "id": "10004",
+            "name": "顾客",
+            "description": "饭店的消费者，向服务员点菜、结账等"
+        },
+        {
+            "id": "10005",
+            "name": "厨房",
+            "description": "饭店中负责准备食物的地方，类似于计算机硬件"
+        },
+        {
+            "id": "10006",
+            "name": "资源管理",
+            "description": "操作系统管理计算机资源的能力"
+        },
+        {
+            "id": "10007",
+            "name": "请求处理",
+            "description": "操作系统处理用户请求并执行相应任务的过程"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10001",
+            "type": "管理"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "沟通"
+        },
+        {
+            "source": "10003",
+            "target": "10004",
+            "type": "服务于"
+        },
+        {
+            "source": "10003",
+            "target": "10005",
+            "type": "沟通"
+        },
+        {
+            "source": "10000",
+            "target": "10006",
+            "type": "执行"
+        },
+        {
+            "source": "10000",
+            "target": "10007",
+            "type": "执行"
+        },
+        {
+            "source": "10004",
+            "target": "10001",
+            "type": "发出请求"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-08-26-12-33-29</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+操作系统（Operating System，简称OS）是计算机系统中一个非常重要的软件，它在硬件和用户应用程序之间起到桥梁的作用。简单来说，操作系统可以视为计算机的“管理员”，负责管理计算机的各个部分，让它们能够协调工作。
+### 通俗易懂的例子
+我们可以把操作系统比作一个“饭店的服务员”。
+1. **饭店与顾客的关系**：
+   - 在饭店中，顾客想要点菜、上菜、结账等，服务员负责与厨房（硬件）和顾客（用户）之间的沟通。
+   - 在计算机中，用户可以通过各种应用程序（例如浏览器、文档编辑器等）来进行操作，而操作系统就像是那个服务员，负责处理用户的指令并与计算机硬件（如CPU、内存、硬盘等）进行交互。
+2. **管理资源**：
+   - 在饭店里，服务员需要合理安排桌子、食材、厨师和服务人员，确保顾客能够及时得到自己点的菜。
+   - 操作系统也需要管理计算机的资源，比如分配内存给运行中的程序、调度CPU的使用、管理文件存储等等，确保每个程序都能顺利运行。
+3. **处理请求**：
+   - 当顾客点了一个菜，服务员会把这个请求传递给厨房，然后再把做好菜品送到顾客桌上。
+   - 同样，当用户在计算机中打开一个程序时，操作系统会接收这个请求，并启动程序，然后把程序的界面展示给用户。
+### 结论
+总之，操作系统就像是饭店中的服务员，管理和协调所有的资源和请求，让顾客（用户）和厨房（硬件）之间的互动变得简单、顺畅。没有操作系统，用户就需要直接与计算机硬件打交道，这样既复杂又困难。因此，操作系统在现代计算机使用中是一个不可或缺的部分。
+请将上述所有内容进行知识图谱提取核心的实体和关系，提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出json数据，其他内容不要输出，```json和```不要输出
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "操作系统",
+            "description": "计算机系统中一个重要的软件"
+        },
+        {
+            "id": "10001",
+            "name": "硬件",
+            "description": "计算机的物理组件"
+        },
+        {
+            "id": "10002",
+            "name": "用户应用程序",
+            "description": "用户运行的各种应用"
+        },
+        {
+            "id": "10003",
+            "name": "饭店",
+            "description": "提供饮食服务的场所"
+        },
+        {
+            "id": "10004",
+            "name": "顾客",
+            "description": "饭店的消费者"
+        },
+        {
+            "id": "10005",
+            "name": "服务员",
+            "description": "饭店中负责服务的人员"
+        },
+        {
+            "id": "10006",
+            "name": "厨房",
+            "description": "饭店中的食物准备场所"
+        },
+        {
+            "id": "10007",
+            "name": "资源管理",
+            "description": "操作系统的核心功能之一"
+        },
+        {
+            "id": "10008",
+            "name": "请求处理",
+            "description": "操作系统处理用户请求的过程"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10001",
+            "type": "管理"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "桥梁"
+        },
+        {
+            "source": "10003",
+            "target": "10004",
+            "type": "服务"
+        },
+        {
+            "source": "10005",
+            "target": "10003",
+            "type": "工作"
+        },
+        {
+            "source": "10005",
+            "target": "10006",
+            "type": "沟通"
+        },
+        {
+            "source": "10007",
+            "target": "10000",
+            "type": "特点"
+        },
+        {
+            "source": "10008",
+            "target": "10000",
+            "type": "特点"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-08-26-12-36-39</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">计算机科学与技术是一个涉及计算机及其应用的学科领域，主要涵盖了计算机的理论、设计、开发、应用和维护等多个方面。它一般包括以下几个主要内容：
+1. **计算机理论**：研究计算机的基本原理、算法、数据结构、计算复杂性等。
+2. **编程语言**：学习和使用各种编程语言来开发软件和应用程序。
+3. **软件工程**：涉及软件的开发流程、设计模式、测试、维护等，旨在提高软件开发的效率和质量。
+4. **计算机系统**：包括操作系统、计算机硬件结构、网络系统等，研究计算机如何处理数据和如何与外部设备进行交互。
+5. **数据库**：研究如何存储、管理和获取数据，学习数据库设计及相关语言（如SQL）。
+6. **人工智能与机器学习**：研究使计算机能够执行需要智能的任务的技术和方法，例如自然语言处理、图像识别等。
+7. **网络与信息安全**：关注计算机网络的设计、安全性以及维护，学习如何保护信息不被未经授权的访问或破坏。
+8. **人机交互**：研究用户与计算机之间的交互方式，旨在提升用户体验。
+计算机科学与技术不仅是理论研究的领域，同时也广泛应用于经济、医疗、交通、娱乐等多个行业，推动了现代社会的数字化和智能化进程。
+请将上述所有内容进行知识图谱提取核心的实体和关系，提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出json数据，其他内容不要输出，```json和```不要输出
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "计算机科学与技术",
+            "description": "涉及计算机及其应用的学科领域"
+        },
+        {
+            "id": "10001",
+            "name": "计算机理论",
+            "description": "研究计算机的基本原理、算法、数据结构、计算复杂性等"
+        },
+        {
+            "id": "10002",
+            "name": "编程语言",
+            "description": "学习和使用各种编程语言来开发软件和应用程序"
+        },
+        {
+            "id": "10003",
+            "name": "软件工程",
+            "description": "涉及软件的开发流程、设计模式、测试、维护等"
+        },
+        {
+            "id": "10004",
+            "name": "计算机系统",
+            "description": "包括操作系统、计算机硬件结构、网络系统等"
+        },
+        {
+            "id": "10005",
+            "name": "数据库",
+            "description": "研究如何存储、管理和获取数据"
+        },
+        {
+            "id": "10006",
+            "name": "人工智能与机器学习",
+            "description": "研究使计算机能够执行需要智能的任务的技术和方法"
+        },
+        {
+            "id": "10007",
+            "name": "网络与信息安全",
+            "description": "关注计算机网络的设计、安全性以及维护"
+        },
+        {
+            "id": "10008",
+            "name": "人机交互",
+            "description": "研究用户与计算机之间的交互方式"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10001",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10003",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10004",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10005",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10006",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10007",
+            "type": "包含"
+        },
+        {
+            "source": "10000",
+            "target": "10008",
+            "type": "包含"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-08-26-12-38-09</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+操作系统（Operating System，简称OS）是计算机系统中一个非常重要的软件，它在硬件和用户应用程序之间起到桥梁的作用。简单来说，操作系统可以视为计算机的“管理员”，负责管理计算机的各个部分，让它们能够协调工作。
+### 通俗易懂的例子
+我们可以把操作系统比作一个“饭店的服务员”。
+1. **饭店与顾客的关系**：
+   - 在饭店中，顾客想要点菜、上菜、结账等，服务员负责与厨房（硬件）和顾客（用户）之间的沟通。
+   - 在计算机中，用户可以通过各种应用程序（例如浏览器、文档编辑器等）来进行操作，而操作系统就像是那个服务员，负责处理用户的指令并与计算机硬件（如CPU、内存、硬盘等）进行交互。
+2. **管理资源**：
+   - 在饭店里，服务员需要合理安排桌子、食材、厨师和服务人员，确保顾客能够及时得到自己点的菜。
+   - 操作系统也需要管理计算机的资源，比如分配内存给运行中的程序、调度CPU的使用、管理文件存储等等，确保每个程序都能顺利运行。
+3. **处理请求**：
+   - 当顾客点了一个菜，服务员会把这个请求传递给厨房，然后再把做好菜品送到顾客桌上。
+   - 同样，当用户在计算机中打开一个程序时，操作系统会接收这个请求，并启动程序，然后把程序的界面展示给用户。
+### 结论
+总之，操作系统就像是饭店中的服务员，管理和协调所有的资源和请求，让顾客（用户）和厨房（硬件）之间的互动变得简单、顺畅。没有操作系统，用户就需要直接与计算机硬件打交道，这样既复杂又困难。因此，操作系统在现代计算机使用中是一个不可或缺的部分。
+请将上述所有内容进行知识图谱提取核心的实体和关系，提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，仅仅输出json数据，其他内容不要输出，```json和```不要输出
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "操作系统",
+            "description": "计算机系统中的重要软件，负责管理计算机各部分的协调工作"
+        },
+        {
+            "id": "10001",
+            "name": "用户",
+            "description": "使用计算机及应用程序的人"
+        },
+        {
+            "id": "10002",
+            "name": "硬件",
+            "description": "计算机的物理组件，如CPU、内存、硬盘等"
+        },
+        {
+            "id": "10003",
+            "name": "饭店",
+            "description": "提供食物和服务的场所"
+        },
+        {
+            "id": "10004",
+            "name": "服务员",
+            "description": "负责顾客与厨房之间沟通的角色"
+        },
+        {
+            "id": "10005",
+            "name": "顾客",
+            "description": "在饭店点餐的人"
+        },
+        {
+            "id": "10006",
+            "name": "厨房",
+            "description": "准备食物的地方"
+        },
+        {
+            "id": "10007",
+            "name": "资源管理",
+            "description": "操作系统为程序和硬件分配与管理资源的过程"
+        },
+        {
+            "id": "10008",
+            "name": "请求处理",
+            "description": "操作系统对用户请求的接收和响应机制"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10001",
+            "type": "服务于"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "协调"
+        },
+        {
+            "source": "10003",
+            "target": "10004",
+            "type": "包含"
+        },
+        {
+            "source": "10004",
+            "target": "10005",
+            "type": "服务于"
+        },
+        {
+            "source": "10004",
+            "target": "10006",
+            "type": "连接"
+        },
+        {
+            "source": "10000",
+            "target": "10007",
+            "type": "进行"
+        },
+        {
+            "source": "10000",
+            "target": "10008",
+            "type": "执行"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testing/save_qa_file.xlsx
+++ b/testing/save_qa_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2601,6 +2601,317 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-08-26-12-45-53</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+操作系统（Operating System，简称OS）是计算机系统中一个非常重要的软件，它在硬件和用户应用程序之间起到桥梁的作用。简单来说，操作系统可以视为计算机的“管理员”，负责管理计算机的各个部分，让它们能够协调工作。
+### 通俗易懂的例子
+我们可以把操作系统比作一个“饭店的服务员”。
+1. **饭店与顾客的关系**：
+   - 在饭店中，顾客想要点菜、上菜、结账等，服务员负责与厨房（硬件）和顾客（用户）之间的沟通。
+   - 在计算机中，用户可以通过各种应用程序（例如浏览器、文档编辑器等）来进行操作，而操作系统就像是那个服务员，负责处理用户的指令并与计算机硬件（如CPU、内存、硬盘等）进行交互。
+2. **管理资源**：
+   - 在饭店里，服务员需要合理安排桌子、食材、厨师和服务人员，确保顾客能够及时得到自己点的菜。
+   - 操作系统也需要管理计算机的资源，比如分配内存给运行中的程序、调度CPU的使用、管理文件存储等等，确保每个程序都能顺利运行。
+3. **处理请求**：
+   - 当顾客点了一个菜，服务员会把这个请求传递给厨房，然后再把做好菜品送到顾客桌上。
+   - 同样，当用户在计算机中打开一个程序时，操作系统会接收这个请求，并启动程序，然后把程序的界面展示给用户。
+### 结论
+总之，操作系统就像是饭店中的服务员，管理和协调所有的资源和请求，让顾客（用户）和厨房（硬件）之间的互动变得简单、顺畅。没有操作系统，用户就需要直接与计算机硬件打交道，这样既复杂又困难。因此，操作系统在现代计算机使用中是一个不可或缺的部分。
+请将上述所有内容进行知识图谱提取核心的实体和关系，提取为json格式，示例如下：
+{
+    "nodes": [
+        {
+            "id": "1",
+            "name": "软件工程",
+            "description": "软件工程"
+        }
+    ],
+    "links": [
+        {
+            "source": "2",
+            "target": "1",
+            "type": "包含"
+        }
+    ]
+}
+id字段值要求从10000开始，description字段做到精准通俗易懂描述，type关系名字段做到l逻辑合理通俗易懂描述，仅仅输出json数据，其他内容不要输出，```json和```不要输出
+</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{
+    "nodes": [
+        {
+            "id": "10000",
+            "name": "操作系统",
+            "description": "计算机系统中负责管理硬件和用户应用程序的软件"
+        },
+        {
+            "id": "10001",
+            "name": "用户",
+            "description": "使用计算机的个人或组织，发出操作请求"
+        },
+        {
+            "id": "10002",
+            "name": "硬件",
+            "description": "计算机的物理组件，包括CPU、内存、硬盘等"
+        },
+        {
+            "id": "10003",
+            "name": "应用程序",
+            "description": "用户通过其进行操作的各种软件，比如浏览器和文档编辑器"
+        },
+        {
+            "id": "10004",
+            "name": "资源管理",
+            "description": "分配和协调计算机资源的过程"
+        },
+        {
+            "id": "10005",
+            "name": "请求处理",
+            "description": "操作系统接收并处理来自用户和程序的请求"
+        },
+        {
+            "id": "10006",
+            "name": "饭店服务员",
+            "description": "在饭店中负责协调顾客和厨房的工作人员"
+        },
+        {
+            "id": "10007",
+            "name": "顾客",
+            "description": "在饭店中点餐和消费的个人"
+        },
+        {
+            "id": "10008",
+            "name": "厨房",
+            "description": "饭店中负责准备食物的地方和工作人员"
+        },
+        {
+            "id": "10009",
+            "name": "桌子和食材",
+            "description": "饭店中顾客就坐的地方和制作菜品的材料"
+        }
+    ],
+    "links": [
+        {
+            "source": "10000",
+            "target": "10001",
+            "type": "服务"
+        },
+        {
+            "source": "10000",
+            "target": "10002",
+            "type": "管理"
+        },
+        {
+            "source": "10000",
+            "target": "10003",
+            "type": "与用户交互"
+        },
+        {
+            "source": "10000",
+            "target": "10004",
+            "type": "执行"
+        },
+        {
+            "source": "10000",
+            "target": "10005",
+            "type": "处理"
+        },
+        {
+            "source": "10006",
+            "target": "10007",
+            "type": "协调"
+        },
+        {
+            "source": "10006",
+            "target": "10008",
+            "type": "沟通"
+        },
+        {
+            "source": "10007",
+            "target": "10009",
+            "type": "使用"
+        },
+        {
+            "source": "10008",
+            "target": "10009",
+            "type": "产出"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-08-26-15-30-43</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+如：CIO介入
+高层管理人员介入原则
+用户确定范围、核心用户全程参与、用户深度参
+用户参与开发原则
+与
+从整体出发、从系统观念出发，以求【整体最
+系统工程定义
+以此减少信息不一致的现象
+自顶向下规划原则
+优】
+信息系统建设原则
+引入【软件工程】
+工程化原则
+应用场景：组织和管理大型工程建设项目
+创新性原则
+系统工程方法论
+逻辑维：逻辑维即解决问题的逻辑过程。
+霍尔三维结构（“硬科学”方法论）
+整体性原则
+时间维：时间维即是工作进程。
+其他原则
+发展性原则
+系统工程方法
+知识维：知识维即是专业科学知识。
+经济性原则
+核心不是“最优化”，而是“比较”和“探寻”
+绪论
+切克兰德方法（“软科学”方法论）
+7步骤：认识问题、根底定义、建立概念模型、
+香农（ClaudeE.Shannon）：信息就是不确定
+比较及探寻、选择、设计与实施、评估与反馈
+信息的定义
+性的减少
+客观性【真伪性】：真实是信息的中心价值，信
+提出建设信息的初步想法、对需求进行调研和分
+产生阶段
+总体规划
+息分主观信息（如：决策、指令、计划）和客观
+析
+信息（如：国际形势、经济发展、
+一年四季），
+系统分析
+主观信息必然要转化成客观信息。
+开发阶段
+信息系统生命周期
+单个系统开发
+系统设计
+普遍性：物质决定精神，物质的普遍性决定了信
+运行阶段
+通过验收、移交之后
+息的普遍存在。
+信息和信息化的概念
+系统实施
+消亡阶段
+更新改造、功能扩展、报废重建
+无限性：客观世界是无限的，信息的总量是无限
+的，每个具体事物能产生的信息也是无限的。
+系统验收
+动态性：信息随着时间的变化而变化。
+相对性：不同主体从同一事物中获取的信息及信
+息量可能是不同的。
+信息的特点
+依附性：信息是客观世界的反映，信息要依附一
+定的载体。信息不能完全脱离物质而独立存在。
+变换性：信息通过处理实现变换或转换。
+传递性：信息在时间上的传递即是存储；在空间
+上的传递即是转移或扩散。
+层次性：客观世界是分层的，信息也是分层
+的。
+系统性：不同类别的信息可形成不同整体。
+转化性：信息可转化为物质或能量。
+</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>这段文本探讨了信息系统工程、系统工程方法论及信息和信息化的相关概念与原则。以下是对不同部分的总结与梳理。
+### 1. **管理者参与原则** 
+- **CIO及高层管理人员的介入**: 关键决策者需参与，以确保信息系统的方向符合整体战略。
+- **用户参与**: 用户的全程参与和深度参与至关重要，确保系统开发符合用户需求。
+### 2. **系统工程与软件工程**
+- **系统工程定义**: 从整体和系统的观念出发，解决信息不一致的问题。
+- **工程化原则**: 将软件开发与工程项目管理结合，以提高效率和质量。
+### 3. **系统工程的方法论**
+- **霍尔三维结构**: 通过逻辑、时间和知识三维度来理解和解决问题。
+  - **逻辑维**: 解决问题的过程。
+  - **时间维**: 工作进程的管理。
+  - **知识维**: 依靠专业的科学知识指导工作。
+### 4. **信息的特性**
+- **客观性**: 信息的真实与否是其中心价值。
+- **无限性**: 信息的总量是无限的，每个具体事物能够产生无限的信息。
+- **动态性**: 信息随着时间变化而变化。
+- **相对性**: 不同主体对同一事物的信息理解和量可能不同。
+- **依附性**: 信息依赖于一定的载体，不能独立存在。
+- **变换性**: 信息可以通过处理实现转换。
+- **传递性**: 信息在时间和空间上的传递方式各异。
+- **层次性**: 信息在层次结构中存在不同的类别和层级。
+- **系统性**: 各类信息形成不同的整体。
+- **转化性**: 信息可以转化为物质或能量。
+### 5. **信息系统生命周期**
+- 分为系统的规划、分析、设计、实施、运行及更新改造阶段，每个阶段都需保证信息的有效管理与开发质量。
+### 6. **切克兰德方法**
+使用7个步骤方法来处理问题：识别问题、底层定义、建立模型、比较及探寻、选择、设计与实施、评估与反馈。
+综上所述，这些原则和方法论强调了信息系统建设中各个参与者的重要性、管理信息的多维度特性，并论述了信息的特点与演变过程，为构建高效、可靠的信息系统提供理论基础与指导。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-08-26-15-34-04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+系统工程定义
+从整体出发、从系统观念出发，以求【整体最
+优1
+应用场景：组织和管理大型工程建设项目
+系统工程方法论
+逻辑维：逻辑维即解决问题的逻辑过程。
+霍尔三维结构（“硬科学”方法论）
+时间维：时间维即是工作进程。
+系统工程方法
+知识维：知识维即是专业科学知识。
+核心不是“最优化”，而是“比较”和“探寻”
+切克兰德方法（“软科学”方法论）
+7步骤：认识问题、根底定义、建立概念模型、
+比较及探寻、选择、设计与实施、评估与反馈
+</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>系统工程是一种以整体为视角、运用系统思维的方法论，旨在通过综合各方面的资源和知识，解决复杂问题，实现整体最优。其主要应用场景包括组织和管理大型工程建设项目，涉及多个学科的交叉与协作。
+在系统工程中，通常可以从以下几个维度来理解和应用：
+1. **逻辑维**：关注解决问题的逻辑过程，包括如何识别问题、分析原因、提出方案等。这一维度强调推理和分析的严谨性。
+2. **时间维**：涉及工作进程的管理，确保各个阶段的活动按照预定的时间节点有序推进。这一维度强调项目的进度管理以及时间资源的合理配置。
+3. **知识维**：强调专业科学知识的应用，包括工程技术、管理学、经济学等多学科的知识。这一维度要求系统工程师具备跨学科的知识背景，以便更好地解决问题。
+在系统工程的方法论中，核心并不是简单的“最优化”，而是“比较”和“探寻”。具体而言，系统工程可以采用切克兰德方法，这一方法论包含以下七个步骤：
+1. 认识问题：明确待解决的问题及其背景。
+2. 根底定义：定义问题的根本性质和范围。
+3. 建立概念模型：构建抽象模型，以帮助理解系统及其组成部分之间的关系。
+4. 比较及探寻：对不同方案进行比较和评估，探索最佳解决方案。
+5. 选择：基于比较结果选择最优方案。
+6. 设计与实施：将选择的方案进行详细设计并付诸实施。
+7. 评估与反馈：对实施结果进行评估，获取反馈信息，以便持续改进。
+通过以上步骤，系统工程能够有效地解决复杂问题，实现优化的方案设计与实施。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testing/save_qa_file.xlsx
+++ b/testing/save_qa_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2912,6 +2912,599 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-18-21</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">神经网络是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>神经网络是一种模拟人类大脑工作方式的计算模型，主要用于处理复杂的数据并进行预测或分类。简单来说，可以把神经网络看作是一种能“学习”的计算系统。
+为了更好地理解，我们可以用一个简单的例子来说明。
+想象一下，您正在教一只小狗如何区分“球”和“棒”。每次您给它看一个物体时，它会观察这个物体的特征，比如颜色、形状和大小。您会告诉它：“这是一个球”或“这是一个棒”。通过不断重复这个过程，小狗会逐渐学习到这两种物体的不同特征，并在下次看到新的球或棒时能够正确识别出来。
+在这个过程中，您的大脑充当了“神经网络”的角色，负责分析这些特征并做出决策。同样，神经网络通过输入数据（就像小狗观察物体那样）和输出结果（就像您告诉小狗这是球还是棒）来进行学习。它会调整自身的参数以提高识别的准确性。
+以一张图片为例，假设我们让一个神经网络来识别图片中的猫和狗。神经网络会将图片中的像素信息转化为数值数据，并通过多层次的计算（就像小狗在不断思考）来提取出重要的特征（如耳朵的形状、毛发的颜色等）。经过大量的训练后，这个神经网络就能够比较准确地判断一张图片中是猫还是狗。
+总结一下，神经网络通过模拟大脑的神经元连接，学习从输入数据中提取特征并进行决策。它广泛应用于图像识别、自然语言处理、语音识别等多个领域。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-19-37</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">深度学习是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>深度学习是人工智能（AI）和机器学习中的一个重要分支，主要通过模拟人脑的结构和功能来处理和分析数据。它使用一种叫做“神经网络”的算法，这种网络就像是一张由许多小节点（“神经元”）连接而成的网络。
+为了便于理解，可以用以下的例子来解释深度学习：
+**例子：识别水果**
+假设你要训练一个深度学习模型，让它能够识别各种水果，比如苹果、香蕉和橙子。这个过程大致可以分为以下几个步骤：
+1. **数据收集**：首先，你需要搜集大量的水果图片。比如，你可以有成千上万张苹果、香蕉和橙子的图片，每种水果的图片越多，模型的准确率会越高。
+2. **数据标注**：接下来，你需要给每张图片打标签，告诉模型这张图中是苹果、香蕉还是橙子。
+3. **模型构建**：然后，你会构建一个神经网络。这个网络由多个层组成，每一层都有许多节点（神经元）。输入层接受图片数据，隐藏层负责复杂的特征提取，输出层则给出最终的分类结果（例如，判断这张图是苹果、香蕉还是橙子）。
+4. **训练模型**：你将这些带标签的水果图片输入到神经网络中，模型会通过不断调整内部参数（就像微调一个乐器），逐渐学会识别水果的特征。比如，模型可能会发现苹果是圆的、红色或绿色，香蕉是弯的、黄色，橙子是圆的、橙色。
+5. **测试和优化**：在模型训练后，你会用一些新图片（这些图片在训练时没有使用过）来测试这个模型。通过评估模型的性能，你可以进一步优化它，比如调整网络架构或者使用更多的数据。
+6. **应用**：最终，经过训练和测试，一个优秀的深度学习模型就能够较为准确地识别出新的水果图像，甚至能够在不同光照、角度或背景下的情况下，也能正确判断。
+总的来说，深度学习可以看作是一种通过大量数据和复杂网络结构，模仿人类思维来“学习”的方式。它在图像识别、语音识别、自然语言处理等领域都有着广泛的应用。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-20-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">深度学习是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>深度学习是一种机器学习的技术，主要通过模仿大脑的神经网络来处理和分析大量数据。简单来说，可以把深度学习想象成一个“聪明的计算机”。
+为了更好地理解深度学习，以下是一个通俗易懂的例子：
+### 例子：识别水果
+假设你想教计算机识别不同的水果，比如苹果、香蕉和橙子。通常，计算机并没有像人类一样的直观概念，所以我们需要给它提供很多的例子。
+1. **数据输入**：首先，你需要收集很多水果的图片，比如各种角度的苹果、香蕉和橙子的照片。这些图片就是数据输入。
+2. **构建神经网络**：接下来，我们用一组“神经元”来处理这些图片。每个神经元就像是大脑中的一个小单位，能够识别图片中的某些特征，比如形状、颜色等。深度学习的“深度”来源于使用多层神经元，每一层负责提取不同层次的信息。
+3. **训练模型**：你把收集到的水果图片输入到这个神经网络中，并告诉它每张图片对应的水果（比如告诉它“这是苹果”）。计算机会通过调整神经元之间的连接强度（也就是权重）来学习这些特征。经过多次反复训练，它逐步“记住”了不同水果的特征。
+4. **测试模型**：一旦训练完成，你可以用新的水果图片来测试这个模型。比如，你给它一张新的香蕉图片，它会根据之前学习的特征来判断这是否是香蕉。
+5. **结果输出**：如果模型判断出这张图片是香蕉，那么它就“成功”了！经过多次的训练，模型会越来越准确地识别不同的水果。
+通过这个例子，我们可以看到，深度学习的关键在于：
+- 收集大量数据（如水果图片）
+- 用多层神经元模型学习这些数据的特征
+- 不断调整和优化，以提高识别的准确性
+深度学习不仅可以用来识别水果，还可以应用于图像识别、语音识别、自然语言处理等多个领域，极大地推动了人工智能的发展。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-20-36</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">深度学习是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>深度学习是机器学习的一个分支，它通过模仿人脑的结构和功能来识别和处理数据。可以把它想象成一种让计算机“自学”的方法。
+### 举个通俗易懂的例子：
+想象你在教一个小朋友识别动物。你首先给他看很多动物的图片，比如猫、狗、鸟等，并告诉他每个动物的名字。随着时间的推移，小朋友开始识别这些动物，即使有些动物的姿势或颜色不同，他也能正确地告诉你这是什么动物。
+#### 深度学习如何运作：
+1. **数据收集**：就像你给小朋友看很多动物的图片，深度学习需要大量的数据来“学习”。例如，如果我们要训练计算机识别猫和狗，就需要很多猫和狗的图片。
+2. **特征提取**：人类在识别动物时，会注意到特定的特征，比如猫的尖耳朵和小胡子，狗的长嘴和短舌头。在深度学习中，计算机通过多层的神经网络来自动提取这些特征。每一层神经网络会从上一次提取的特征中学习到更加复杂的特征。
+3. **训练和优化**：在学习过程中，计算机会根据它的判断和实际答案之间的差异不断调整自己的“记忆”，这个过程叫做“训练”。就像小朋友，通过一次次的纠正，他的判断会越来越准确。
+4. **预测**：当训练完成后，如果你给计算机一张新的动物图片，它就能根据之前学到的知识来判断这个动物是猫还是狗。
+### 总结：
+深度学习的关键在于利用大量的数据和复杂的计算模型（神经网络）来自动学习和识别模式。这种方式在语音识别、图像识别、自然语言处理等许多领域取得了重要的进展，帮助计算机在许多任务上表现出色。
+简单来说，深度学习就像是让计算机通过大量的例子来自我学习，并最终能够做出智能判断。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-21-52</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">深度学习是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>深度学习是一种机器学习的技术，属于人工智能的一个分支。它通过模拟人脑的神经网络结构来学习和识别数据中的模式、特征或关系。为了使这个概念更加通俗易懂，可以通过以下例子进行讲解。
+### 例子：识别图片中的动物
+假设你想教一台计算机识别照片中的动物，比如猫和狗。传统的编程方法需要你手动编写规则，比如“如果耳朵尖，那么是猫；如果耳朵长而垂，那么是狗。”这样的规则非常繁琐，而且很难覆盖所有情况。
+#### 深度学习的方式：
+1. **数据收集**：首先，你需要大量的图片数据，包括猫和狗的照片。这些照片可以是不同角度、不同光线、不同种类的猫和狗。
+2. **神经网络**：然后，你会用深度学习的方法搭建一个神经网络。这个神经网络就像人脑中的神经元一样，由多个“层”组成。每一层都会逐渐提取数据中的特征。例如：
+   - 第一层可能会识别出边缘和颜色。
+   - 第二层可能会识别出形状，比如耳朵的轮廓。
+   - 第三层可能会把这些特征组合起来，判断出这是猫还是狗。
+3. **训练**：接下来，你将收集到的这些图片输入到神经网络中，网络会通过不断的学习和调整，来提高它的识别准确率。每当网络错误分类时，它会更新自己了解的特征，以便在下一次更准确地判断。
+4. **测试**：训练完成后，你会用一些未见过的图片来测试这个网络，看它是否能够正确识别猫和狗。
+### 结果
+经过训练后的深度学习模型可以非常准确地识别出新图片中的动物。甚至比手动编写的规则还要好，因为它能够自动学习并适应新的样本，而不是依靠固定的规则。
+### 总结
+深度学习通过模拟人脑的工作方式，利用大量数据和强大的计算能力，学习如何从复杂信息中提取有用的知识。这一技术不仅可以用于图像识别，还可以应用于语音识别、自然语言处理等多个领域。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-23-22</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">图像识别是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>图像识别是计算机科学中的一个领域，旨在使计算机能够“理解”和“识别”图片中的内容，类似于人类通过视觉来分析和解释物体。简单来说，图像识别就是让计算机学习如何识别和分类图片中的物体、场景或其他信息。
+举个通俗易懂的例子：
+想象一下你在展示一系列的图片给一个小孩看，并告诉他每张图片里的内容，比如“这是猫”，“这是狗”，“这是苹果”。通过多次的展示和解释，小孩逐渐能够根据这些图片识别出猫、狗和苹果。当你给他一张新图片时，小孩就能够根据之前的学习来判断这张图片里是什么。
+在图像识别的过程中，计算机也是通过“学习”来识别图片。它通常会使用一种叫做“深度学习”的技术，借助大量的图片数据进行训练。比如，计算机会被输入成千上万张包含猫和狗的图片，并标注好每张图片的内容。经过不断的训练，计算机就会逐渐能够根据图片的特征来识别出新的猫和狗的图片。
+应用实例：
+1. **社交媒体**：在上传照片时，社交媒体平台能自动识别照片中的人并建议标注他们的名字。
+2. **自动驾驶**：自动驾驶汽车利用图像识别技术识别交通标志、行人和其他车辆，以安全驾驶。
+3. **医疗诊断**：医生可以使用图像识别技术分析医学影像，如X光片或CT扫描，帮助诊断疾病。
+总之，图像识别是一个让计算机能够理解图像内容的技术，带来了很多便利和应用。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-24-32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">计算机科学与技术是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>计算机科学与技术是一个广泛的领域，涉及计算机的理论基础、软件开发、硬件设计、网络和信息系统等多个方面。我们可以通过几个简单的例子来理解这个领域的基本概念。
+### 1. 基础知识与理论
+**例子：数学和逻辑**
+计算机科学的基础就像数学和逻辑。例如，计算机内部使用的二进制数字（0和1）是一种逻辑运算。在数字逻辑中，我们通过简单的“与”、“或”、“非”等运算，来处理信息和数据。
+### 2. 编程
+**例子：做菜的食谱**
+编程可以看作是为计算机编写“食谱”。就像做菜需要按照食谱中的步骤来操作，计算机需要按照程序员写的代码来执行任务。例如，使用 Python 编程语言写一个简单的程序，让计算机输出“你好，世界！”。这就像是给计算机下了一道简单的“菜”。
+### 3. 软件开发
+**例子：手机应用**
+软件开发是创建应用程序和系统的过程。例如，手机上的社交媒体应用，背后有成千上万行代码，开发者通过编写这些代码来实现用户可以发消息、分享照片等功能。软件开发就像是建造一栋大楼，需要不同的工人、设计师和管理者协同工作。
+### 4. 硬件与架构
+**例子：计算机的组成部分**
+计算机硬件就像是一台机器的各个部件。比如，CPU（中央处理器）是计算机的大脑，负责处理所有的计算；内存则像是短期记忆，用于临时存储数据。硬件和软件之间的合作就像是汽车的引擎和油箱，缺一不可。
+### 5. 网络与安全
+**例子：互联网**
+互联网可以看作一个巨大的高速公路系统，数据通过“车辆”在不同的计算机之间传输。在这个过程中，网络安全就像是交通警察，确保数据在传输时不被盗取或破坏。
+### 6. 数据科学与人工智能
+**例子：推荐系统**
+数据科学和人工智能可以帮助计算机学习和预测。例如，网购网站根据你的浏览和购买历史推荐商品。这种推荐系统通过分析大量数据，找到潜在的兴趣点，就像你的朋友根据你喜欢的东西来推荐你可能感兴趣的新产品。
+通过这些例子，我们可以看到，计算机科学与技术不仅仅是关于代码和机器，它还涉及到思维方式、创造和解决问题的能力。它在我们日常生活中的应用已经无处不在，理解这些基本概念能够帮助我们更好地利用计算机技术。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-25-25</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">软件工程是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>软件工程是一个系统化的方法，用于开发、操作和维护软件。简单来说，软件工程就是为了确保软件的质量、效率和可维护性而采用的一系列原则和实践。
+为了让这个概念更容易理解，可以用建造房子的过程来做类比：
+1. **需求分析**：在建造房子之前，首先需要了解客户的需求，比如他们希望房子有几个房间、多少个卫生间、停车位等。这就像在软件工程中，开发团队需要与用户沟通，明确软件的功能和需求。
+2. **设计**：在明确了需求之后，建筑师会开始设计房子的蓝图，决定房子的结构、布局和风格。在软件工程中，设计阶段就相当于创建软件的架构和界面，确保它可用且易于理解。
+3. **实现/编码**：有了设计图纸后，工人开始建造房子。同样，在软件工程中，开发人员会根据设计文档编写代码，制作出实际的软件产品。
+4. **测试**：房子建好后，会进行检查，确保没有漏水或者其他问题。这在软件工程中对应于测试阶段，开发团队会对软件进行各种测试，以确保它没有bug（错误）并且满足需求。
+5. **维护**：房子建成后，可能会出现一些需要修缮的问题，比如漏水、墙壁裂缝等。软件发布后，也会有更新和维护，以修复bug、添加新功能或改进性能。
+6. **文档**：每一建筑都需要一些说明书，比如装修注意事项、房屋维护指南等。在软件工程中，也需要创建文档，以便开发人员和用户可以理解和使用软件。
+总而言之，软件工程就是用一种系统化的方法来构建和维护软件，确保它能满足用户需求并且质量优秀，正如建筑工程确保房子安全舒适一样。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-26-36</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">人工智能是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>人工智能（AI）是指通过计算机和软件模拟人类智能的能力，使机器能够学习、推理、解决问题、理解自然语言等。为了更好地理解人工智能，我们可以用一些通俗易懂的例子来说明：
+1. **语音助手**：
+   比如，智能手机中的语音助手（如苹果的Siri或亚马逊的Alexa）。你可以用自然语言向它们提问，比如“今天天气怎么样？”或者“给我播放一些音乐”。这些语音助手能够理解你的问题，并以人类能够理解的方式作出回应。这就是人工智能在语言理解和处理上的应用。
+2. **推荐系统**：
+   想象一下你在看Netflix或者使用一些电商平台，比如淘宝。当你浏览视频或商品时，系统会根据你的观看历史或购买记录推荐你可能喜欢的影片或商品。这是因为这些平台使用了人工智能算法来分析你的喜好，并给出个性化的建议。
+3. **自动驾驶**：
+   自动驾驶汽车是另一个人工智能的应用实例。它们使用大量传感器和摄像头来观察周围环境，并通过复杂的算法来判断如何安全驾驶，如避开障碍、识别交通信号等。这里面涉及到深度学习和计算机视觉等人工智能技术。
+4. **游戏对战**：
+   在很多视频游戏中，有些敌人或角色是由人工智能控制的。比如在国际象棋的程序中，AI可以根据残局的情况，计算出最佳的下一步。这使得游戏变得更有挑战性，因为它能够不断学习和适应玩家的策略。
+综上所述，人工智能是通过算法和数据来借鉴和模拟人类的思维与行为，使得机器能够有效地完成各种任务。通过日常生活中的一些应用，我们可以看到人工智能在各个领域的广泛应用。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-28-27</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">机器学习是什么？
+上述请结合通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>机器学习是人工智能的一个分支，它让计算机能够通过数据学习和改进自己的表现，而不是通过明确的编程指令来完成任务。换句话说，机器学习允许计算机从经验中学习，无需人为干预。
+我们可以通过一个简单的例子来理解机器学习：
+### 例子：电子邮件的垃圾邮件过滤
+想象一下，你的邮箱里有很多邮件。有些邮件是你朋友发来的，而有些则是垃圾邮件（比如广告、推销信息等）。你希望有一个系统能够自动将垃圾邮件过滤掉。
+1. **收集数据**：首先，你需要一个包含正常邮件和垃圾邮件的样本数据集。这个数据集可能包含邮件的内容、发件人、时间等信息。
+2. **训练模型**：接下来，使用这些数据来训练“垃圾邮件分类器”。在这个过程中，模型会学习识别哪些特征通常与垃圾邮件相关。例如，垃圾邮件中的一些常见词汇（如“免费”、“促销”等）和特定的发件人地址。
+3. **预测新邮件**：一旦模型接受了足够的数据进行训练，它就可以对新收到的邮件进行分类。每当新邮件进来时，系统会根据之前学习到的知识，判断这封邮件是正常邮件还是垃圾邮件，并自动将其放入相应的文件夹。
+4. **改进模型**：随着时间的推移，用户可能会手动调整垃圾邮件的分类（比如把一些没有被识别的垃圾邮件标记为垃圾邮件），这些新的反馈可以用来进一步训练和改进模型，使其变得更智能。
+这样的程序就是机器学习的一个具体应用，它通过不断学习和适应，提高了对垃圾邮件的识别准确率。这种方法在许多领域都有应用，比如图像识别、语音识别、推荐系统等。
+总的来说，机器学习就是让计算机通过数据学习，并在此基础上做出更好的决策。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-29-36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">机器学习是什么？
+上述请结合简要通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>机器学习是一种让计算机通过数据学习并做出决策或者预测的技术。它不需要明确编写程序来解决具体的问题，而是依靠算法从数据中提取规律。
+举个简单的例子：
+想象你在教一只小猫识别不同的水果。你把一堆不同的水果（苹果、香蕉、橙子等）放在桌子上，然后告诉小猫每种水果的名称。每次小猫正确识别出一种水果时，你就给它一些奖励（比如零食）。随着时间的推移，小猫通过观察这些水果的特征（颜色、形状等）和你给予的反馈，逐渐学会了如何区分不同的水果。
+在这个例子中：
+- 小猫是一个“模型”，它的任务是识别水果。
+- 水果的特征（颜色、形状）就是“数据”。
+- 你给予的反馈（奖励或惩罚）就相当于“标签”，帮助小猫学习。
+通过这种方式，机器学习让计算机能够从数据中学习，从而在未来遇到类似问题时作出更好的判断和决策。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-30-49</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">软件测试是什么？
+上述请结合简要通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>软件测试是一个确保软件质量的过程，目的是发现软件中的缺陷或错误，以便在软件发布之前进行修复。简单来说，就像在你要呈现一份重要的报告前，先仔细检查一遍，确保没有拼写错误或其他问题。
+### 例子：
+想象一下，你刚刚用材料制作了一个新的玩具。为了确保这个玩具安全、耐用并且能够正常使用，你会进行一些测试：
+1. **功能测试**：你玩一下这个玩具，看看它的功能是否正常，比如按一下按钮，玩具是否会发出声音或闪烁。
+2. **耐用性测试**：你用力摇晃这个玩具，看看它是否容易损坏。这就像检查软件在高负载条件下的表现。
+3. **安全性测试**：你检查玩具的边缘是否锋利，确保没有小部件会被儿童误吞。这就类似于测试软件是否存在安全漏洞。
+4. **用户体验测试**：你让小朋友试一试这个玩具，看看他们是否喜欢，操作是否简单。这类似于收集用户对软件的反馈，评估其易用性。
+通过这些测试，你可以确保制作出来的玩具是安全的、有趣的、且能正常工作。同样，软件测试帮助开发者确保他们的软件在发布给用户之前是高质量的、无缺陷的，从而避免后续可能引起的问题。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-31-09</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">软件测试是什么？
+上述请结合简要通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>软件测试是为了确保软件产品的质量和可靠性而进行的一系列活动。简单来说，可以把软件测试看作是检查和验证软件是否按预期工作的一种方式。
+### 举个通俗易懂的例子：
+假设你在制作一个蛋糕，软件就是这个蛋糕，而软件测试就是在蛋糕完成后进行的品尝和检查。
+1. **制作蛋糕**：你按照食谱准备食材，混合材料，最后把蛋糕放进烤箱。这一步相当于软件开发中的编码阶段，开发人员写出软件的代码。
+2. **检查外观**：当蛋糕凉了之后，你先看看外观是否完好，颜色是否均匀。这个步骤类似于软件测试中的“界面测试”，确保软件的用户界面符合设计规范。
+3. **品尝蛋糕**：接下来，你可以切一块蛋糕尝一尝，看看味道是否好，还有没有其他的问题，比如是否过甜或过咸。这个过程就像是功能测试，确认软件的各项功能是否正常，是否达到了用户的期望。
+4. **找出问题**：如果你发现蛋糕里面有生面团，或者口感不对，你就需要调整配方或重新制作一遍。这就像是在软件测试中发现了bug（软件缺陷）后，开发人员需要修复这些问题。
+5. **反复测试**：如果修改后再次烘焙，然后又要进行品尝和检查，直到你对这个蛋糕完全满意。软件测试也是一个反复的过程，直到软件达到发布的标准。
+总之，软件测试的目的是确保最终交付给用户的软件是安全、可靠和符合需求的，就像是确保烤出的蛋糕好吃又美观。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-31-26</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">软件测试是什么？
+上述请结合简要通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>软件测试是一个过程，旨在确定软件应用程序或系统的质量和性能。简单来说，就是通过各种方法和技术，检查软件是否符合要求，是否能正常工作，并且发现潜在的缺陷。
+可以用一个简单的例子来说明：假设你在家里做一个蛋糕。软件测试就像是在蛋糕烤好后，先用牙签插入蛋糕中，看看是否烤熟，牙签出来时是否是干净的。如果里面是生的面糊，那就说明蛋糕还需要继续烘焙。这个过程类似于软件测试中的“功能测试”，它确保软件的每一个功能能够正常工作。
+再举一个例子，想象你买了一款新手机。你在使用手机前，正常的测试过程包括检查屏幕是否正常显示，触摸是否灵敏，拍照功能是否正常等。如果其中某个功能有问题，比如摄像头拍出来的照片模糊不清，那就代表这款手机还需要改进。这就是为什么手机在上市前会经过严格的软件测试，以确保用户的使用体验是良好的。
+总之，软件测试是一种确保软件质量的必要步骤，它可以帮助开发团队发现和修复问题，从而提供更好的用户体验。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-31-42</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">软件测试是什么？
+上述请结合简要通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>软件测试是一个确保软件质量的过程，主要目的是发现和修复软件中的错误和缺陷。通过软件测试，我们可以验证软件是否按预期工作，并确保它在不同条件下的稳定性和可靠性。
+**通俗易懂的例子：**
+想象一下你在家里烤蛋糕。在烤之前，你会准备所有的材料，按照食谱一步一步进行。然后在烤好蛋糕之前，你可能会采取一些步骤来确保蛋糕的质量，比如：
+1. **检查材料**：确保面粉、新鲜鸡蛋和糖等原料都是好的。
+2. **试吃面糊**：在放进烤箱之前，你可能会尝一尝面糊，确保味道合适，没有错加盐等。
+3. **观察变化**：在蛋糕烘焙的过程中，你会观察烤箱里的情况，确保温度合适，没有过热。
+4. **切片品尝**：烤好后，你会切一片来尝尝，确保蛋糕的口感和味道都很好。
+在这个过程中，检查材料和试吃面糊就相当于软件测试的早期阶段（单元测试），而观察烘焙状态和切片品尝则类似于后期测试（功能测试和验收测试）。通过这些步骤，你可以确保最终的蛋糕（软件）是美味可口、符合期待的。
+同样地，软件测试通过一系列有计划的方法来发现问题，从而提高软件的质量，最终为用户提供更好的体验。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-32-35</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">软件测试是什么？
+上述请结合简要通俗易懂的例子讲解下
+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>软件测试是一个确保软件质量和可靠性的重要过程。简单来说，软件测试就是对软件进行检查和验证，以确保它按照预期的方式工作，并且没有错误或缺陷。
+可以用一个生活中的例子来说明软件测试：
+想象你刚买了一部手机。在使用前，你可能会先进行一些基本的检查和操作，比如：
+1. **开机测试**：你会先按下开机键，看看手机是否能够正常启动。
+2. **功能测试**：你会试着拨打电话、发送短信、拍照等，确保这些功能都能够正常使用。
+3. **性能测试**：你可能会尝试打开几款应用程序，看看手机在多任务处理时是否流畅，没有卡顿。
+4. **耐久性测试**：你可能会测试手机的电池续航，看看它在一天使用后电量还能剩多少。
+在这个例子中，你对手机进行的各种测试，类似于软件测试中的不同环节。软件测试不仅仅只是找出错误，还包括确认软件是否达到了用户的需求和期望。
+总之，软件测试可以帮助开发者提前发现问题，从而在软件发布前进行修复，提高用户体验和软件的可靠性。</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-33-11</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">软件测试是什么？
+上述请结合简要通俗易懂的例子讲解下，不超过200字
+</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>软件测试是验证软件产品是否按照预期功能正常运行的过程。通过测试，可以发现并修复软件中的缺陷，以确保用户体验良好。
+举个例子，想象你在测试一个购物应用。你添加了一件商品到购物车，然后点击结算。软件测试的过程就是检查这个操作是否按预期完成。比如，看看商品是否正确出现在购物车中，是否能够顺利结算，支付是否成功，最终收到的订单确认邮件是否准确。
+如果测试中发现问题，比如购物车为空或支付失败，开发人员就需要修复这些问题。通过这样的测试，确保用户使用应用时不会遇到错误，从而提供更好的服务体验。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-33-24</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">软件测试是什么？
+上述请结合简要通俗易懂的例子讲解下，不超过200字
+</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>软件测试是验证软件是否按预期功能运行的过程。通俗来说，就像是检查一本书的内容是否正确。
+比如，想象你买了一本新的食谱书，测试的过程就像你尝试书中的食谱，看看菜是否真的好吃。如果某个食谱的做法不正确，或者结果和描述不符，这就是一个“缺陷”。通过测试，你可以找到这些问题并反馈给作者，确保读者能做出美味的菜肴。
+在软件开发中，测试帮助开发团队发现程序中的错误，保证软件的质量，使用户能够顺利使用。通过测试，最终用户获得的是一个更可靠、功能更完整的产品。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-33-43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">软件测试是什么？有哪些分类？
+上述请结合简要通俗易懂的例子讲解下，不超过200字
+</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>软件测试是为了确保软件的质量和功能是否符合用户需求的过程。通过测试，可以发现并修复软件中的错误和缺陷，以提高用户体验。
+软件测试主要有以下几种分类：
+1. **功能测试**：验证软件的功能是否按预期工作。例如，检查一个在线购物网站的“加入购物车”功能是否正常。
+2. **性能测试**：评估软件在高负载情况下的表现。例如，测试一个网站在用户同时访问时的响应速度。
+3. **安全测试**：检测软件的安全性，确保数据不被未授权访问。例如，测试一个银行应用程序是否能抵御黑客攻击。
+4. **自动化测试**：使用工具自动执行测试，比如每次软件更新后自动跑一系列测试用例，节省人工测试的时间。
+通过这些测试，可以有效提高软件的可靠性和用户满意度。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-35-22</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">操作系统是什么？有哪些分类？
+上述请结合简要通俗易懂的例子讲解下，不超过200字
+</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>操作系统是计算机硬件和用户之间的桥梁，负责管理计算机资源并为应用程序提供支持。简单来说，操作系统就像一位指挥家，协调各种乐器（硬件），让它们和谐地演奏（运行应用程序）。
+操作系统可以按照不同的标准进行分类：
+1. **按使用环境**：
+   - **桌面操作系统**：例如 Windows、macOS，适合个人用户使用。
+   - **服务器操作系统**：例如 Linux Server，专为管理服务器资源设计。
+2. **按用户交互方式**：
+   - **图形用户界面（GUI）**：如 Windows，用户通过图标和窗口与系统互动。
+   - **命令行界面（CLI）**：如 Linux终端，用户通过输入命令进行操作。
+3. **按支持的设备类型**：
+   - **嵌入式操作系统**：用于智能家居设备、汽车等专用设备，如RTOS。
+   - **移动操作系统**：如 Android、iOS，专为手机和平板设计。
+这些分类帮助用户和开发者选择最合适的操作系统来满足不同需求。</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-44-10</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">操作系统是什么？有哪些分类？
+上述请结合简要通俗易懂的例子讲解下，不超过200字
+</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>操作系统（Operating System, OS）是管理计算机硬件和软件资源的程序，充当用户与计算机之间的桥梁。简单来说，操作系统使用户可以更方便地使用计算机，就像汽车的方向盘帮助驾驶员控制车辆。
+操作系统可以分为几种类型：
+1. **桌面操作系统**：例如Windows、macOS和Linux，通常用于个人电脑，提供图形界面，便于日常使用。
+2. **移动操作系统**：例如Android和iOS，专门为手机和平板设备设计，注重触摸屏操作和便携性。
+3. **实时操作系统**：用于对时间敏感的应用，如工业控制和医疗设备，确保在严格的时间限制内完成任务。
+4. **嵌入式操作系统**：嵌入在特定设备中，如家电、汽车等，功能相对简单，优化了资源使用。 
+这些系统各具特点，满足不同设备和用户的需求。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-08-26-23-44-30</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">操作系统是什么？
+上述请结合简要通俗易懂的例子讲解下，不超过200字
+</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>操作系统是管理计算机硬件和软件资源的系统软件，它为用户和应用程序提供一个运行和交互的环境。可以把操作系统比作一个大型办公室的管理者。
+例如，在办公室里，管理者负责协调各个部门的工作，分配资源，确保员工能顺利完成任务。操作系统则负责管理计算机的CPU、内存、存储和输入输出设备，调度各种应用程序的运行，确保它们能够有效地工作而不会互相干扰。
+常见的操作系统有Windows、macOS和Linux等，就像不同的办公室管理风格，各有特点，但都旨在提高工作效率和用户体验。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
